--- a/Data/testDataFactory.xlsx
+++ b/Data/testDataFactory.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10704" tabRatio="728" activeTab="3"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13944" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10704" tabRatio="728" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="__readMe" sheetId="7" r:id="rId1"/>
@@ -1034,7 +1033,267 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1818,6 +2077,108 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
+  <autoFilter ref="A1:E8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Role UID" dataDxfId="35"/>
+    <tableColumn id="2" name="Entity Number" dataDxfId="34"/>
+    <tableColumn id="3" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" name="Parent Number" dataDxfId="32"/>
+    <tableColumn id="5" name="Criticality" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Asset UID" dataDxfId="28"/>
+    <tableColumn id="2" name="Asset Serial" dataDxfId="27"/>
+    <tableColumn id="3" name="Asset LCS" dataDxfId="26"/>
+    <tableColumn id="4" name="Serving Role" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:I3"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="UID" dataDxfId="22"/>
+    <tableColumn id="2" name="Activity Type"/>
+    <tableColumn id="3" name="Acting on Asset"/>
+    <tableColumn id="4" name="Acting on Role" dataDxfId="21"/>
+    <tableColumn id="5" name="Done by"/>
+    <tableColumn id="6" name="Date" dataDxfId="20"/>
+    <tableColumn id="7" name="Time" dataDxfId="19"/>
+    <tableColumn id="8" name="LCS Outcome"/>
+    <tableColumn id="9" name="Moved To"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:I5"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="UID" dataDxfId="17"/>
+    <tableColumn id="2" name="Activity Type"/>
+    <tableColumn id="3" name="Acting on" dataDxfId="16"/>
+    <tableColumn id="4" name="Done by"/>
+    <tableColumn id="5" name="Date" dataDxfId="15"/>
+    <tableColumn id="6" name="Time" dataDxfId="14"/>
+    <tableColumn id="7" name="Interpretation Outcome"/>
+    <tableColumn id="8" name="Description Outcome"/>
+    <tableColumn id="9" name="Entity Number Outcome"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="UID" dataDxfId="12"/>
+    <tableColumn id="2" name="Entity Number" dataDxfId="11"/>
+    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" name="Coordinate" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="UID"/>
+    <tableColumn id="2" name="Entity Number"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Condition Rating"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Role UID" dataDxfId="5"/>
+    <tableColumn id="2" name="Entity Number" dataDxfId="4"/>
+    <tableColumn id="3" name="Parent Number" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2086,9 +2447,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="I14" sqref="H14:I14"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2154,10 +2512,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,6 +2660,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2313,10 +2671,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,6 +2757,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2409,19 +2767,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-    <sheetView zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" customWidth="1"/>
@@ -2478,9 +2834,6 @@
       <c r="H2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2511,6 +2864,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2518,11 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,11 +2883,11 @@
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" customWidth="1"/>
     <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
@@ -2608,9 +2961,7 @@
       <c r="F3" s="11">
         <v>0.625</v>
       </c>
-      <c r="G3" s="13" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2661,6 +3012,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2669,10 +3023,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,6 +3135,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2792,10 +3146,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +3154,7 @@
     <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2879,6 +3230,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2887,10 +3241,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="M56" sqref="M56"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,6 +3340,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2996,10 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Data/testDataFactory.xlsx
+++ b/Data/testDataFactory.xlsx
@@ -1,90 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Documents\GitHub\FAMO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://torontoca-my.sharepoint.com/personal/thuang4_toronto_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{A0EAA4A9-96AC-429B-908F-DBB996691594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02DB62AC-EF16-44D4-B747-8530E41D8271}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10704" tabRatio="728" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__readMe" sheetId="7" r:id="rId1"/>
     <sheet name="WMS-Role" sheetId="1" r:id="rId2"/>
     <sheet name="WMS-Asset" sheetId="2" r:id="rId3"/>
-    <sheet name="WMS-Activity" sheetId="8" r:id="rId4"/>
-    <sheet name="DH-ReconcileApp" sheetId="9" r:id="rId5"/>
-    <sheet name="GIS-Asset" sheetId="3" r:id="rId6"/>
-    <sheet name="CBM-Condition" sheetId="6" r:id="rId7"/>
-    <sheet name="PIDstore-Role" sheetId="4" r:id="rId8"/>
-    <sheet name="_PIDprojectChangeData" sheetId="5" r:id="rId9"/>
+    <sheet name="GIS-Asset" sheetId="3" r:id="rId4"/>
+    <sheet name="Drawing" sheetId="4" r:id="rId5"/>
+    <sheet name="SCADA" sheetId="13" r:id="rId6"/>
+    <sheet name="ETMS" sheetId="14" r:id="rId7"/>
+    <sheet name="CBM-Condition" sheetId="6" r:id="rId8"/>
+    <sheet name="WMS-Activity" sheetId="8" r:id="rId9"/>
+    <sheet name="DH-ReconcileApp" sheetId="9" r:id="rId10"/>
+    <sheet name="_PIDstore-Role" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Tony Huang</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tony Huang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Notice that GIS has a set of assets not in WMS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Tony Huang</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Intially missing in WMS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="195">
   <si>
     <t>Role UID</t>
   </si>
@@ -101,12 +58,6 @@
     <t>Asset Serial</t>
   </si>
   <si>
-    <t>Asset LCS</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Active Service</t>
   </si>
   <si>
@@ -122,27 +73,9 @@
     <t>R7</t>
   </si>
   <si>
-    <t>Parent Number</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R3wrong</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>role 1 description</t>
-  </si>
-  <si>
-    <t>role 2 description</t>
-  </si>
-  <si>
-    <t>role 3 description</t>
-  </si>
-  <si>
     <t>role 4 description</t>
   </si>
   <si>
@@ -155,9 +88,6 @@
     <t>role 7 description</t>
   </si>
   <si>
-    <t>role 8 description</t>
-  </si>
-  <si>
     <t>Serving Role</t>
   </si>
   <si>
@@ -167,69 +97,15 @@
     <t>Coordinate</t>
   </si>
   <si>
-    <t>WMS-RID1</t>
-  </si>
-  <si>
-    <t>WMS-RID2</t>
-  </si>
-  <si>
-    <t>WMS-RID3</t>
-  </si>
-  <si>
-    <t>WMS-RID4</t>
-  </si>
-  <si>
     <t>WMS-RID5</t>
   </si>
   <si>
     <t>WMS-RID6</t>
   </si>
   <si>
-    <t>WMS-RID7</t>
-  </si>
-  <si>
     <t>WMS-RID8</t>
   </si>
   <si>
-    <t>WMS-AID4</t>
-  </si>
-  <si>
-    <t>WMS-AID5</t>
-  </si>
-  <si>
-    <t>WMS-AID6</t>
-  </si>
-  <si>
-    <t>WMS-AID7</t>
-  </si>
-  <si>
-    <t>SerialNum4</t>
-  </si>
-  <si>
-    <t>SerialNum5</t>
-  </si>
-  <si>
-    <t>SerialNum6</t>
-  </si>
-  <si>
-    <t>SerialNum7</t>
-  </si>
-  <si>
-    <t>PID-RID4</t>
-  </si>
-  <si>
-    <t>PID-RID5</t>
-  </si>
-  <si>
-    <t>PID-RID6</t>
-  </si>
-  <si>
-    <t>PID-RID7</t>
-  </si>
-  <si>
-    <t>PID-RID8</t>
-  </si>
-  <si>
     <t>Condition Rating</t>
   </si>
   <si>
@@ -263,60 +139,6 @@
     <t>Test 1 Colour Schemes</t>
   </si>
   <si>
-    <t>GIS-AID11</t>
-  </si>
-  <si>
-    <t>GIS-AID12</t>
-  </si>
-  <si>
-    <t>GIS-AID13</t>
-  </si>
-  <si>
-    <t>GIS-AID14</t>
-  </si>
-  <si>
-    <t>GIS-AID15</t>
-  </si>
-  <si>
-    <t>GIS-AID16</t>
-  </si>
-  <si>
-    <t>Serial11</t>
-  </si>
-  <si>
-    <t>Serial12</t>
-  </si>
-  <si>
-    <t>Serial13</t>
-  </si>
-  <si>
-    <t>Serial14</t>
-  </si>
-  <si>
-    <t>Serial15</t>
-  </si>
-  <si>
-    <t>Serial16</t>
-  </si>
-  <si>
-    <t>Asset 11 Description</t>
-  </si>
-  <si>
-    <t>Asset 12 Description</t>
-  </si>
-  <si>
-    <t>Asset 13 Description</t>
-  </si>
-  <si>
-    <t>Asset 14 Description</t>
-  </si>
-  <si>
-    <t>Asset 15 Description</t>
-  </si>
-  <si>
-    <t>Asset 16 Description</t>
-  </si>
-  <si>
     <t>43.70361277361467, -79.40541755754744</t>
   </si>
   <si>
@@ -450,16 +272,370 @@
   </si>
   <si>
     <t>Criticality</t>
+  </si>
+  <si>
+    <t>This workbook contains the specification of the data reconciliation POC</t>
+  </si>
+  <si>
+    <t>Drawing Set Page Number</t>
+  </si>
+  <si>
+    <t>Role Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Parent Entity</t>
+  </si>
+  <si>
+    <t>Functional Description</t>
+  </si>
+  <si>
+    <t>Asset Number</t>
+  </si>
+  <si>
+    <t>A05860</t>
+  </si>
+  <si>
+    <t>A05861</t>
+  </si>
+  <si>
+    <t>A05862</t>
+  </si>
+  <si>
+    <t>A05863</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Drawing Tag UID</t>
+  </si>
+  <si>
+    <t>ETMS Role UID</t>
+  </si>
+  <si>
+    <t>clarifier system</t>
+  </si>
+  <si>
+    <t>Control Panel,Combustion,Waste Gas Burner Pilot Panel CP-5100</t>
+  </si>
+  <si>
+    <t>THX-DIG-CP-5100</t>
+  </si>
+  <si>
+    <t>THX-NGS-CP-5150</t>
+  </si>
+  <si>
+    <t>THX-NGS-CH-5100</t>
+  </si>
+  <si>
+    <t>THX-NGS-BL-5100</t>
+  </si>
+  <si>
+    <t>THX-DIG-FX-5100</t>
+  </si>
+  <si>
+    <t>THX-DIG-V-5104</t>
+  </si>
+  <si>
+    <t>THX-DIG-PIT-5103</t>
+  </si>
+  <si>
+    <t>THX-DIG-PIT-5104</t>
+  </si>
+  <si>
+    <t>THX-DIG-V-5103</t>
+  </si>
+  <si>
+    <t>Control Panel,BU-5100,Building XX</t>
+  </si>
+  <si>
+    <t>Chamber,Combustion,CP-5150,Building XX</t>
+  </si>
+  <si>
+    <t>Blower,Centrifugal,Pilot Combustion,CP-5150,Building XX</t>
+  </si>
+  <si>
+    <t>Flame Arrestor,Digester Gas,BU-5100,Low Pressure,Building XX</t>
+  </si>
+  <si>
+    <t>Valve,Thermal,Isolation,FX-5100,Building XX</t>
+  </si>
+  <si>
+    <t>Transmitter,Pressure,Digester Gas,BU-5100,Building XX</t>
+  </si>
+  <si>
+    <t>Valve,Ball,Actuated,Inlet,BU-5100,Low Pressure,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-BU-5100</t>
+  </si>
+  <si>
+    <t>Burner,Waste Gas, Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-BU-5200</t>
+  </si>
+  <si>
+    <t>THX-DIG-CP-5200</t>
+  </si>
+  <si>
+    <t>Control Panel,BU-5200,Building XX</t>
+  </si>
+  <si>
+    <t>THX-NGS-CP-5250</t>
+  </si>
+  <si>
+    <t>Control Panel,Combustion,Waste Gas Burner Pilot Panel CP-5200</t>
+  </si>
+  <si>
+    <t>THX-NGS-CH-5200</t>
+  </si>
+  <si>
+    <t>Chamber,Combustion,CP-5250,Building XX</t>
+  </si>
+  <si>
+    <t>THX-NGS-BL-5200</t>
+  </si>
+  <si>
+    <t>Blower,Centrifugal,Pilot Combustion,CP-5250,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-FX-5200</t>
+  </si>
+  <si>
+    <t>Flame Arrestor,Digester Gas,BU-5200,Low Pressure,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-V-5204</t>
+  </si>
+  <si>
+    <t>Valve,Thermal,Isolation,FX-5200,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-PIT-5203</t>
+  </si>
+  <si>
+    <t>Transmitter,Pressure,Digester Gas,BU-5200,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG-PIT-5204</t>
+  </si>
+  <si>
+    <t>THX-DIG-V-5203</t>
+  </si>
+  <si>
+    <t>Valve,Ball,Actuated,Inlet,BU-5200,Low Pressure,Building XX</t>
+  </si>
+  <si>
+    <t>THX-DIG</t>
+  </si>
+  <si>
+    <t>Facility Ground, Primary Digesters</t>
+  </si>
+  <si>
+    <t>Facility Ground, Primary Digesters, Waste Gas Burners, Outside, Lower Level, East Wall</t>
+  </si>
+  <si>
+    <t>Facility Ground, Primary Digesters, Waste Gas Burners, Drip Trap Room</t>
+  </si>
+  <si>
+    <t>Facility Ground, Primary Digesters, Waste Gas Burners</t>
+  </si>
+  <si>
+    <t>Burner,Waste Gas</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>Chamber,Combustion</t>
+  </si>
+  <si>
+    <t>Blower,Centrifugal</t>
+  </si>
+  <si>
+    <t>Flame Arrestor,Digester Gas</t>
+  </si>
+  <si>
+    <t>Valve,Thermal,Isolation</t>
+  </si>
+  <si>
+    <t>Transmitter,Pressure,Digester Gas</t>
+  </si>
+  <si>
+    <t>Valve,Ball,Actuated</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0101</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0102</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0103</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0104</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0105</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0106</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0107</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0108</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0109</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0110</t>
+  </si>
+  <si>
+    <t>A05864</t>
+  </si>
+  <si>
+    <t>A05865</t>
+  </si>
+  <si>
+    <t>A05866</t>
+  </si>
+  <si>
+    <t>A05867</t>
+  </si>
+  <si>
+    <t>A05868</t>
+  </si>
+  <si>
+    <t>A05869</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0111</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0112</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0113</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0114</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0115</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0116</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0117</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0118</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0119</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-0120</t>
+  </si>
+  <si>
+    <t>A05870</t>
+  </si>
+  <si>
+    <t>A05871</t>
+  </si>
+  <si>
+    <t>A05872</t>
+  </si>
+  <si>
+    <t>A05873</t>
+  </si>
+  <si>
+    <t>A05874</t>
+  </si>
+  <si>
+    <t>A05875</t>
+  </si>
+  <si>
+    <t>A05876</t>
+  </si>
+  <si>
+    <t>A05877</t>
+  </si>
+  <si>
+    <t>A05878</t>
+  </si>
+  <si>
+    <t>A05879</t>
+  </si>
+  <si>
+    <t>A05880</t>
+  </si>
+  <si>
+    <t>A05881</t>
+  </si>
+  <si>
+    <t>A05882</t>
+  </si>
+  <si>
+    <t>A05883</t>
+  </si>
+  <si>
+    <t>A05884</t>
+  </si>
+  <si>
+    <t>A05885</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g102</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g103</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g104</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g105</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g106</t>
+  </si>
+  <si>
+    <t>se-rial-num-ber-g107</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>THX-DIG-FDT-5201</t>
+  </si>
+  <si>
+    <t>Analyzer,Flame Detector,Waste Gas,BU-5200,Building XX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,19 +754,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -607,8 +770,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,12 +956,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -955,7 +1117,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -963,16 +1125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -982,11 +1138,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1033,36 +1228,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="51">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1079,28 +1257,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1133,12 +1295,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1234,7 +1390,105 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1270,9 +1524,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1293,6 +1544,34 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1310,26 +1589,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>140252</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>35615</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177239</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1172817</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35615</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1958414</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="140252" y="1413565"/>
-          <a:ext cx="1794565" cy="1181100"/>
+          <a:off x="14259298" y="4796116"/>
+          <a:ext cx="1781175" cy="971177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,36 +1659,42 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>10/6 TH:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>I</a:t>
+            <a:t>In</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t> don't see how data in this table can be explicitly linked to the data in WMSAssetData table. </a:t>
+            <a:t> the future, s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>patial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> location will be a class of entity, and we would see the primary key here instead</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" i="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1413,25 +1704,272 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5485A4-F2CF-4C39-8401-9C24AF32FEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="2451100"/>
-          <a:ext cx="1797050" cy="1181100"/>
+          <a:off x="1441450" y="4718050"/>
+          <a:ext cx="1765300" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31048"/>
+            <a:gd name="adj2" fmla="val -71077"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Entity Number" and "Role number" are equivalent terms</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0FAFFD-5C93-4D90-A9B6-87862B9814DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8940800" y="4508500"/>
+          <a:ext cx="1892300" cy="806450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -25196"/>
+            <a:gd name="adj2" fmla="val -95573"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Plea</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>se notice that this is the primary key of th WMS-Role table</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D40A6D-BA1C-4F89-9136-3CFDEBD2479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1746250" y="1866900"/>
+          <a:ext cx="1543050" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20010"/>
+            <a:gd name="adj2" fmla="val -79485"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Note</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> that these are not the same assets in WMS Role sheet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>230468</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5594350"/>
+          <a:ext cx="1786218" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,7 +2014,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
             <a:t>We</a:t>
           </a:r>
@@ -1485,15 +2023,15 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t> may need to prioritize the use of the outcome information here (e.g. LCS Outcome, Move to) to assert a new manifestation</a:t>
+            <a:t> will be treating the Tag Object Number as the primary key, Which we will use to link to the DH</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" i="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1502,26 +2040,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1240088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>39098</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502660</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39099</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1593850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3507038" y="1417048"/>
-          <a:ext cx="1796222" cy="1181101"/>
+          <a:off x="2339975" y="5737225"/>
+          <a:ext cx="2384425" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,54 +2110,24 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>10/6 TH:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>Note:</a:t>
+            <a:t>Notice that</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t> t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>he work is done on the asset occupying this role. But the WO records it</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t> to the role.  This is a common pattern</a:t>
+            <a:t> some records have 2 representation. THis is not a mistake.  An object can be represented multiple times in a drawing</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" i="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1623,47 +2137,84 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83855BA8-66F1-48BE-96A3-BFF0BB98CD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9423400" y="1416050"/>
+          <a:ext cx="6629400" cy="189808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1308100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D168A9B-22D8-4356-86CC-093A952923E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="1587500"/>
-          <a:ext cx="1809750" cy="1181100"/>
+          <a:off x="9696449" y="241300"/>
+          <a:ext cx="1685926" cy="803148"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1687,73 +2238,95 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>This</a:t>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Note,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t> is from an application, and should ideally be converted to JSON</a:t>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> this role, present in the WMS-role sheet is removed in this sheet</a:t>
           </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>687295</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A277E849-30F8-4947-823C-4A2CB7537D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9726707" y="2353235"/>
+          <a:ext cx="6551705" cy="213520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>696071</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1835150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95997</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8493C155-613E-439F-875D-8B4EEAF3D02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8121650" y="1682750"/>
-          <a:ext cx="1809750" cy="1181100"/>
+          <a:off x="9744821" y="1466851"/>
+          <a:ext cx="1685926" cy="729750"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1777,143 +2350,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>Discuss</a:t>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Note,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t> with Terry:</a:t>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> this role, present in this sheet, is not in WMS-role sheet</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>COnceivable that if we use JSON, we can just use one outcome field, and its data type would be flexible. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8674100" y="2965450"/>
-          <a:ext cx="1809750" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>Terry:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>Express this data in JSON?</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1922,7 +2366,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1939,7 +2383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2065,115 +2515,806 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140252</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1172817</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140252" y="1413565"/>
+          <a:ext cx="1794565" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>10/6 TH:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> don't see how data in this table can be explicitly linked to the data in WMSAssetData table. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>915521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1207621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2237815" y="1758576"/>
+          <a:ext cx="1849718" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>We</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> may need to prioritize the use of the outcome information here (e.g. LCS Outcome, Move to) to assert a new manifestation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1240088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507038" y="1417048"/>
+          <a:ext cx="1796222" cy="1181101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>10/6 TH:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>he work is done on the asset occupying this role. But the WO records it</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> to the role.  This is a common pattern</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1587500"/>
+          <a:ext cx="1809750" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> is from an application, and should ideally be converted to JSON</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1835150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8121650" y="1682750"/>
+          <a:ext cx="1809750" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Discuss</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> with Terry:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>COnceivable that if we use JSON, we can just use one outcome field, and its data type would be flexible. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674100" y="2965450"/>
+          <a:ext cx="1809750" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Terry:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Express this data in JSON?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Bradley Hand ITC" panose="03070402050302030203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C5" totalsRowShown="0">
-  <autoFilter ref="A3:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A5:C7" totalsRowShown="0">
+  <autoFilter ref="A5:C7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Character"/>
-    <tableColumn id="2" name="Context"/>
-    <tableColumn id="3" name="Meaning"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Character"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Context"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Meaning"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Activity Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Done by"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Interpretation Outcome"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Description Outcome"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Entity Number Outcome"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
-  <autoFilter ref="A1:E8"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Role UID" dataDxfId="35"/>
-    <tableColumn id="2" name="Entity Number" dataDxfId="34"/>
-    <tableColumn id="3" name="Description" dataDxfId="33"/>
-    <tableColumn id="4" name="Parent Number" dataDxfId="32"/>
-    <tableColumn id="5" name="Criticality" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Role UID" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Entity Number" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Functional Description" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Parent Entity" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Role Status" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Location" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Criticality" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Asset UID" dataDxfId="28"/>
-    <tableColumn id="2" name="Asset Serial" dataDxfId="27"/>
-    <tableColumn id="3" name="Asset LCS" dataDxfId="26"/>
-    <tableColumn id="4" name="Serving Role" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:F21" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Asset UID" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{62531491-25DD-45E3-B5C3-5E6259CDF35A}" name="Asset Number" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Asset Serial" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{633E5025-C6FF-4A49-982C-D1171CFD55D0}" name="Asset Class" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="State" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Serving Role" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:I3"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="UID" dataDxfId="22"/>
-    <tableColumn id="2" name="Activity Type"/>
-    <tableColumn id="3" name="Acting on Asset"/>
-    <tableColumn id="4" name="Acting on Role" dataDxfId="21"/>
-    <tableColumn id="5" name="Done by"/>
-    <tableColumn id="6" name="Date" dataDxfId="20"/>
-    <tableColumn id="7" name="Time" dataDxfId="19"/>
-    <tableColumn id="8" name="LCS Outcome"/>
-    <tableColumn id="9" name="Moved To"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{21D7225C-52F0-44BC-9514-DC3A4658CAC9}" name="Table312" displayName="Table312" ref="A1:F7" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:F7" xr:uid="{B50949D7-7767-4ED5-9888-F0A438889534}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C971D4CC-9574-4F04-8F50-1834725457E4}" name="Asset UID" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C2D6EAE3-DABA-43D2-92B0-797E9F32023F}" name="Asset Number" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{6A48754B-D7E0-498C-BA6C-4264692E11E2}" name="Asset Serial" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{903B2290-306B-4AB2-9D57-407AAD02514A}" name="Asset Class" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{93DE46B6-7313-4362-BD88-17ABD3C1CA29}" name="State" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{F072EA69-42E3-4AAB-A526-508172AF7AB6}" name="Coordinate" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:I5"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="UID" dataDxfId="17"/>
-    <tableColumn id="2" name="Activity Type"/>
-    <tableColumn id="3" name="Acting on" dataDxfId="16"/>
-    <tableColumn id="4" name="Done by"/>
-    <tableColumn id="5" name="Date" dataDxfId="15"/>
-    <tableColumn id="6" name="Time" dataDxfId="14"/>
-    <tableColumn id="7" name="Interpretation Outcome"/>
-    <tableColumn id="8" name="Description Outcome"/>
-    <tableColumn id="9" name="Entity Number Outcome"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="A1:C23" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:C23" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A1:D7"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="UID" dataDxfId="12"/>
-    <tableColumn id="2" name="Entity Number" dataDxfId="11"/>
-    <tableColumn id="3" name="Description" dataDxfId="10"/>
-    <tableColumn id="4" name="Coordinate" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{07E996A2-3884-49D5-9DB8-95E6C4E8CF40}" name="Table8" displayName="Table8" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21" xr:uid="{4D985C3C-4F8D-42F4-969E-7BAD6CD04EC8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EF00F11C-188C-4E21-895D-A7281218EB43}" name="Role UID"/>
+    <tableColumn id="2" xr3:uid="{610E9656-02B1-4407-8D95-31B28B0F86AF}" name="Entity Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="UID"/>
-    <tableColumn id="2" name="Entity Number"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Condition Rating"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="A1:C22" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:C22" xr:uid="{29421CFA-D5AA-4B07-9386-FF1EE054C66F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Role UID" dataDxfId="5"/>
-    <tableColumn id="2" name="Entity Number" dataDxfId="4"/>
-    <tableColumn id="3" name="Parent Number" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="UID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Entity Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Condition Rating"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Activity Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Acting on Asset"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Done by"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="LCS Outcome"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Moved To"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2441,61 +3582,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.4609375" customWidth="1"/>
+    <col min="3" max="3" width="27.84375" customWidth="1"/>
+    <col min="4" max="4" width="22.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.53515625" customWidth="1"/>
+    <col min="3" max="3" width="15.07421875" customWidth="1"/>
+    <col min="4" max="4" width="9.4609375" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3046875" customWidth="1"/>
+    <col min="8" max="8" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44759</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44760</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
+      <c r="E4" s="8">
+        <v>44761</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44762</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.07421875" customWidth="1"/>
+    <col min="2" max="2" width="24.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2508,360 +3881,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.84375" customWidth="1"/>
+    <col min="2" max="2" width="35.61328125" customWidth="1"/>
+    <col min="3" max="3" width="81.3828125" customWidth="1"/>
+    <col min="4" max="4" width="23.15234375" customWidth="1"/>
+    <col min="5" max="5" width="17.53515625" customWidth="1"/>
+    <col min="6" max="6" width="99.765625" customWidth="1"/>
+    <col min="7" max="7" width="11.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1182</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1183</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>1184</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>1185</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>1188</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1189</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>1191</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1192</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>1193</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>1194</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>1198</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>1199</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.4609375" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="3" max="3" width="21.23046875" customWidth="1"/>
+    <col min="4" max="4" width="39.765625" customWidth="1"/>
+    <col min="5" max="5" width="16.4609375" customWidth="1"/>
+    <col min="6" max="6" width="31.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>93620</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>93621</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>93622</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>93623</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>93624</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>93625</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>93626</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>93627</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>93628</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>93629</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>93630</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>93631</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>93632</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>93633</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>93634</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>93635</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>93636</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>93637</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>93638</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>93639</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.4609375" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
+    <col min="4" max="4" width="16.61328125" customWidth="1"/>
+    <col min="5" max="5" width="16.4609375" customWidth="1"/>
+    <col min="6" max="6" width="50.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
+        <v>968754</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="21">
+        <v>968755</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="21">
+        <v>968756</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="21">
+        <v>968757</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="21">
+        <v>968758</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="21">
+        <v>968759</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="10">
-        <v>44749</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="10">
-        <v>44750</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -2871,361 +5051,876 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="1" max="1" width="18.84375" customWidth="1"/>
+    <col min="2" max="2" width="19.07421875" customWidth="1"/>
+    <col min="3" max="3" width="26.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="10">
-        <v>44759</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="10">
-        <v>44760</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10">
-        <v>44761</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="10">
-        <v>44762</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="45.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>19328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>373866</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>442892</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>845375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>348148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>881933</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>227387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>301292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>532317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>356097</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>803050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>100606</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>958022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>922976</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>480776</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>297934</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>761341</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2341</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>360506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>880911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2937EA8B-B977-4D38-AC14-EF6CAF80C1F7}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" customWidth="1"/>
+    <col min="3" max="3" width="71.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
+        <v>23764</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="24">
+        <v>23765</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
+        <v>23766</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>23768</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <v>23769</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="24">
+        <v>23770</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
+        <v>23771</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="24">
+        <v>23772</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="24">
+        <v>23773</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="24">
+        <v>23774</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
+        <v>23775</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
+        <v>23776</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
+        <v>23777</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="24">
+        <v>23778</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="24">
+        <v>23779</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="24">
+        <v>23780</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="24">
+        <v>23781</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="24">
+        <v>23782</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
+        <v>23783</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <v>23784</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
+        <v>23785</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="12"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3237,125 +5932,203 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.4609375" customWidth="1"/>
+    <col min="2" max="2" width="18.23046875" customWidth="1"/>
+    <col min="3" max="3" width="15.69140625" customWidth="1"/>
+    <col min="4" max="4" width="14.69140625" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" customWidth="1"/>
+    <col min="6" max="6" width="10.84375" customWidth="1"/>
+    <col min="8" max="8" width="16.07421875" customWidth="1"/>
+    <col min="9" max="9" width="10.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44749</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44750</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data/testDataFactory.xlsx
+++ b/Data/testDataFactory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://torontoca-my.sharepoint.com/personal/thuang4_toronto_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Documents\GitHub\FAMO\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{A0EAA4A9-96AC-429B-908F-DBB996691594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02DB62AC-EF16-44D4-B747-8530E41D8271}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCDA85-BA29-4DA2-BBBB-ABC55F66740C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__readMe" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="198">
   <si>
     <t>Role UID</t>
   </si>
@@ -619,13 +619,22 @@
     <t>se-rial-num-ber-g107</t>
   </si>
   <si>
-    <t>valve</t>
-  </si>
-  <si>
     <t>THX-DIG-FDT-5201</t>
   </si>
   <si>
     <t>Analyzer,Flame Detector,Waste Gas,BU-5200,Building XX</t>
+  </si>
+  <si>
+    <t>Valve, Ball</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>GIS</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,6 +781,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1117,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1162,9 +1177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1182,6 +1194,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1228,7 +1252,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1240,35 +1283,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1422,6 +1437,37 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1444,9 +1490,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1591,13 +1634,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177239</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1958414</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1704,14 +1747,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>2207260</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1727,8 +1770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1441450" y="4718050"/>
-          <a:ext cx="1765300" cy="869950"/>
+          <a:off x="1516380" y="6103620"/>
+          <a:ext cx="1765300" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1794,16 +1837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2044700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1818,13 +1861,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8940800" y="4508500"/>
-          <a:ext cx="1892300" cy="806450"/>
+          <a:off x="11385550" y="2929890"/>
+          <a:ext cx="1647190" cy="772160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -25196"/>
-            <a:gd name="adj2" fmla="val -95573"/>
+            <a:gd name="adj1" fmla="val -59424"/>
+            <a:gd name="adj2" fmla="val 29345"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1858,6 +1901,92 @@
             <a:t>se notice that this is the primary key of th WMS-Role table</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200115</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428715</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9D82F7-A6F1-45BC-939B-E6C1D409673A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11382465" y="4165600"/>
+          <a:ext cx="1689100" cy="1800859"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59121"/>
+            <a:gd name="adj2" fmla="val -24878"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>These</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> assets are synchronized from GIS.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>GIS is to be consider the authority system for their properties</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" baseline="0"/>
+            <a:t>For now, we can assume that these assets serve no roles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="1" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3180,15 +3309,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Activity Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Done by"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Interpretation Outcome"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Description Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Entity Number Outcome"/>
@@ -3198,69 +3327,70 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Role UID" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Entity Number" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Functional Description" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Parent Entity" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Role Status" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Location" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Criticality" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Role UID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Entity Number" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Functional Description" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Parent Entity" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Role Status" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Location" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Criticality" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:F21" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Asset UID" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{62531491-25DD-45E3-B5C3-5E6259CDF35A}" name="Asset Number" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Asset Serial" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{633E5025-C6FF-4A49-982C-D1171CFD55D0}" name="Asset Class" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="State" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Serving Role" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:G27" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:G27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Asset UID" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{62531491-25DD-45E3-B5C3-5E6259CDF35A}" name="Asset Number" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Asset Serial" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{633E5025-C6FF-4A49-982C-D1171CFD55D0}" name="Asset Class" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{0E71A417-B464-4B9F-9649-ED9C9F03D391}" name="Source" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="State" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Serving Role" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{21D7225C-52F0-44BC-9514-DC3A4658CAC9}" name="Table312" displayName="Table312" ref="A1:F7" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{21D7225C-52F0-44BC-9514-DC3A4658CAC9}" name="Table312" displayName="Table312" ref="A1:F7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F7" xr:uid="{B50949D7-7767-4ED5-9888-F0A438889534}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C971D4CC-9574-4F04-8F50-1834725457E4}" name="Asset UID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{C2D6EAE3-DABA-43D2-92B0-797E9F32023F}" name="Asset Number" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{6A48754B-D7E0-498C-BA6C-4264692E11E2}" name="Asset Serial" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{903B2290-306B-4AB2-9D57-407AAD02514A}" name="Asset Class" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{93DE46B6-7313-4362-BD88-17ABD3C1CA29}" name="State" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{F072EA69-42E3-4AAB-A526-508172AF7AB6}" name="Coordinate" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{C971D4CC-9574-4F04-8F50-1834725457E4}" name="Asset UID" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C2D6EAE3-DABA-43D2-92B0-797E9F32023F}" name="Asset Number" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{6A48754B-D7E0-498C-BA6C-4264692E11E2}" name="Asset Serial" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{903B2290-306B-4AB2-9D57-407AAD02514A}" name="Asset Class" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{93DE46B6-7313-4362-BD88-17ABD3C1CA29}" name="State" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{F072EA69-42E3-4AAB-A526-508172AF7AB6}" name="Coordinate" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="A1:C23" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="A1:C23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:C23" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3278,19 +3408,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="A1:C22" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="A1:C22" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C22" xr:uid="{29421CFA-D5AA-4B07-9386-FF1EE054C66F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="UID"/>
@@ -3303,16 +3433,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Activity Type"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Acting on Asset"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Done by"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="LCS Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Moved To"/>
   </tableColumns>
@@ -3589,24 +3719,24 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="27.84375" customWidth="1"/>
-    <col min="4" max="4" width="22.84375" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3617,7 +3747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3628,7 +3758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3639,7 +3769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -3661,19 +3791,19 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.53515625" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" customWidth="1"/>
-    <col min="4" max="4" width="9.4609375" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.3046875" customWidth="1"/>
-    <col min="8" max="8" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3702,7 +3832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -3725,7 +3855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -3746,7 +3876,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -3769,7 +3899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -3809,13 +3939,13 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.07421875" customWidth="1"/>
-    <col min="2" max="2" width="24.69140625" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3831,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3839,7 +3969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3847,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3855,7 +3985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3885,24 +4015,24 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.84375" customWidth="1"/>
-    <col min="2" max="2" width="35.61328125" customWidth="1"/>
-    <col min="3" max="3" width="81.3828125" customWidth="1"/>
-    <col min="4" max="4" width="23.15234375" customWidth="1"/>
-    <col min="5" max="5" width="17.53515625" customWidth="1"/>
-    <col min="6" max="6" width="99.765625" customWidth="1"/>
-    <col min="7" max="7" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="99.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +4055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1181</v>
       </c>
@@ -3946,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1182</v>
       </c>
@@ -3956,8 +4086,8 @@
       <c r="C3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
+      <c r="D3" s="19">
+        <v>1181</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>80</v>
@@ -3969,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1183</v>
       </c>
@@ -3979,8 +4109,8 @@
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>111</v>
+      <c r="D4" s="19">
+        <v>1182</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>80</v>
@@ -3992,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1184</v>
       </c>
@@ -4002,8 +4132,8 @@
       <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>111</v>
+      <c r="D5" s="19">
+        <v>1182</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>80</v>
@@ -4015,7 +4145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1185</v>
       </c>
@@ -4025,8 +4155,8 @@
       <c r="C6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>111</v>
+      <c r="D6" s="19">
+        <v>1182</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>80</v>
@@ -4038,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1186</v>
       </c>
@@ -4048,8 +4178,8 @@
       <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>111</v>
+      <c r="D7" s="19">
+        <v>1182</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>80</v>
@@ -4061,18 +4191,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1187</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>111</v>
+      <c r="D8" s="19">
+        <v>1182</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>80</v>
@@ -4084,18 +4214,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1188</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>111</v>
+      <c r="D9" s="19">
+        <v>1182</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>80</v>
@@ -4107,18 +4237,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1189</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>111</v>
+      <c r="D10" s="19">
+        <v>1182</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>80</v>
@@ -4130,18 +4260,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1190</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>111</v>
+      <c r="D11" s="19">
+        <v>1182</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>80</v>
@@ -4153,18 +4283,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1191</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>111</v>
+      <c r="D12" s="19">
+        <v>1182</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>80</v>
@@ -4176,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1192</v>
       </c>
@@ -4186,8 +4316,8 @@
       <c r="C13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>131</v>
+      <c r="D13" s="19">
+        <v>1181</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>80</v>
@@ -4199,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1193</v>
       </c>
@@ -4209,8 +4339,8 @@
       <c r="C14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>113</v>
+      <c r="D14" s="19">
+        <v>1192</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>80</v>
@@ -4222,7 +4352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1194</v>
       </c>
@@ -4232,8 +4362,8 @@
       <c r="C15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>113</v>
+      <c r="D15" s="19">
+        <v>1192</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>80</v>
@@ -4245,7 +4375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1195</v>
       </c>
@@ -4255,8 +4385,8 @@
       <c r="C16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>113</v>
+      <c r="D16" s="19">
+        <v>1192</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>80</v>
@@ -4268,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1196</v>
       </c>
@@ -4278,8 +4408,8 @@
       <c r="C17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>113</v>
+      <c r="D17" s="19">
+        <v>1192</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>80</v>
@@ -4291,18 +4421,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1197</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>113</v>
+      <c r="D18" s="19">
+        <v>1192</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>80</v>
@@ -4314,18 +4444,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1198</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>113</v>
+      <c r="D19" s="19">
+        <v>1192</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>80</v>
@@ -4337,18 +4467,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1199</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>113</v>
+      <c r="D20" s="19">
+        <v>1192</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>80</v>
@@ -4360,18 +4490,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1200</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>113</v>
+      <c r="D21" s="19">
+        <v>1192</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>80</v>
@@ -4383,18 +4513,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1201</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>113</v>
+      <c r="D22" s="19">
+        <v>1192</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>80</v>
@@ -4404,17 +4534,6 @@
       </c>
       <c r="G22" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4433,23 +4552,24 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" customWidth="1"/>
-    <col min="2" max="2" width="16.53515625" customWidth="1"/>
-    <col min="3" max="3" width="21.23046875" customWidth="1"/>
-    <col min="4" max="4" width="39.765625" customWidth="1"/>
-    <col min="5" max="5" width="16.4609375" customWidth="1"/>
-    <col min="6" max="6" width="31.921875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4463,13 +4583,16 @@
         <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>93620</v>
       </c>
@@ -4482,14 +4605,17 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="G2" s="19">
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>93621</v>
       </c>
@@ -4502,14 +4628,17 @@
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20">
+      <c r="G3" s="19">
         <v>1183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>93622</v>
       </c>
@@ -4522,14 +4651,17 @@
       <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="19">
         <v>1184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>93623</v>
       </c>
@@ -4542,14 +4674,17 @@
       <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G5" s="19">
         <v>1185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>93624</v>
       </c>
@@ -4562,14 +4697,17 @@
       <c r="D6" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="19">
         <v>1186</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>93625</v>
       </c>
@@ -4582,14 +4720,17 @@
       <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>1187</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>93626</v>
       </c>
@@ -4602,14 +4743,17 @@
       <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>1188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>93627</v>
       </c>
@@ -4622,14 +4766,17 @@
       <c r="D9" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>1189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>93628</v>
       </c>
@@ -4642,14 +4789,17 @@
       <c r="D10" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>1190</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>93629</v>
       </c>
@@ -4662,14 +4812,17 @@
       <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <v>1191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>93630</v>
       </c>
@@ -4682,14 +4835,17 @@
       <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="G12" s="19">
         <v>1192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>93631</v>
       </c>
@@ -4702,14 +4858,17 @@
       <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="20">
+      <c r="G13" s="19">
         <v>1193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>93632</v>
       </c>
@@ -4722,14 +4881,17 @@
       <c r="D14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="G14" s="19">
         <v>1194</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>93633</v>
       </c>
@@ -4742,14 +4904,17 @@
       <c r="D15" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="20">
+      <c r="G15" s="19">
         <v>1195</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>93634</v>
       </c>
@@ -4762,14 +4927,17 @@
       <c r="D16" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="19">
         <v>1196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>93635</v>
       </c>
@@ -4782,14 +4950,17 @@
       <c r="D17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>93636</v>
       </c>
@@ -4802,14 +4973,17 @@
       <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="15">
         <v>1198</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>93637</v>
       </c>
@@ -4822,14 +4996,17 @@
       <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <v>1199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>93638</v>
       </c>
@@ -4842,14 +5019,17 @@
       <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="15">
+      <c r="G20" s="15">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>93639</v>
       </c>
@@ -4862,12 +5042,141 @@
       <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>1201</v>
       </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>93640</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>93641</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>93642</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>93643</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>93644</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>93645</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -4887,20 +5196,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.4609375" customWidth="1"/>
-    <col min="2" max="2" width="20.4609375" customWidth="1"/>
-    <col min="3" max="3" width="20.84375" customWidth="1"/>
-    <col min="4" max="4" width="16.61328125" customWidth="1"/>
-    <col min="5" max="5" width="16.4609375" customWidth="1"/>
-    <col min="6" max="6" width="50.61328125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4920,123 +5229,123 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>968754</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>968755</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>968756</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>968757</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>968758</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>968759</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5058,17 +5367,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.84375" customWidth="1"/>
-    <col min="2" max="2" width="19.07421875" customWidth="1"/>
-    <col min="3" max="3" width="26.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>91</v>
       </c>
@@ -5079,7 +5388,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5090,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5101,7 +5410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5112,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5123,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5134,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5145,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5156,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5167,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5178,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5189,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5200,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5211,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5222,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5233,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5244,7 +5553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5255,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5266,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5277,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5288,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5299,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5310,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5323,7 +5632,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5342,16 +5651,16 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.765625" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>19328</v>
       </c>
@@ -5367,7 +5676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>373866</v>
       </c>
@@ -5375,7 +5684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>442892</v>
       </c>
@@ -5383,7 +5692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>845375</v>
       </c>
@@ -5391,7 +5700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>348148</v>
       </c>
@@ -5399,7 +5708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>881933</v>
       </c>
@@ -5407,7 +5716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>227387</v>
       </c>
@@ -5415,7 +5724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>301292</v>
       </c>
@@ -5423,7 +5732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>532317</v>
       </c>
@@ -5431,7 +5740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>356097</v>
       </c>
@@ -5439,7 +5748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>803050</v>
       </c>
@@ -5447,7 +5756,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100606</v>
       </c>
@@ -5455,7 +5764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>958022</v>
       </c>
@@ -5463,7 +5772,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>922976</v>
       </c>
@@ -5471,7 +5780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>480776</v>
       </c>
@@ -5479,7 +5788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>297934</v>
       </c>
@@ -5487,7 +5796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>761341</v>
       </c>
@@ -5495,7 +5804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2341</v>
       </c>
@@ -5503,7 +5812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>360506</v>
       </c>
@@ -5511,7 +5820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>880911</v>
       </c>
@@ -5535,17 +5844,17 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" customWidth="1"/>
-    <col min="2" max="2" width="21.84375" customWidth="1"/>
-    <col min="3" max="3" width="71.07421875" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="71.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -5556,8 +5865,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="24">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>23764</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5567,8 +5876,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="24">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>23765</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5578,8 +5887,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>23766</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5589,8 +5898,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>23768</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5600,8 +5909,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>23769</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5611,8 +5920,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>23770</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5622,8 +5931,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="24">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>23771</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5633,8 +5942,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="24">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>23772</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5644,8 +5953,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>23773</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5655,8 +5964,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="24">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>23774</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5666,8 +5975,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="24">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>23775</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5677,8 +5986,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="24">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>23776</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5688,8 +5997,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>23777</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5699,8 +6008,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="24">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>23778</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5710,8 +6019,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="24">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>23779</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5721,8 +6030,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="24">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>23780</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5732,8 +6041,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>23781</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5743,8 +6052,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="24">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>23782</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5754,8 +6063,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>23783</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5765,8 +6074,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>23784</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5776,148 +6085,148 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="24">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>23785</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="2"/>
       <c r="C38" s="12"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="2"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="2"/>
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="2"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="2"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="2"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="2"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="2"/>
       <c r="C47" s="12"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="2"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="2"/>
       <c r="C49" s="12"/>
@@ -5939,15 +6248,15 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.53515625" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" customWidth="1"/>
-    <col min="3" max="3" width="20.84375" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +6270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -5975,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5989,7 +6298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -6003,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -6034,19 +6343,19 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" customWidth="1"/>
-    <col min="2" max="2" width="18.23046875" customWidth="1"/>
-    <col min="3" max="3" width="15.69140625" customWidth="1"/>
-    <col min="4" max="4" width="14.69140625" customWidth="1"/>
-    <col min="5" max="5" width="9.23046875" customWidth="1"/>
-    <col min="6" max="6" width="10.84375" customWidth="1"/>
-    <col min="8" max="8" width="16.07421875" customWidth="1"/>
-    <col min="9" max="9" width="10.53515625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6075,7 +6384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -6098,7 +6407,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>

--- a/Data/testDataFactory.xlsx
+++ b/Data/testDataFactory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Documents\GitHub\FAMO\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCDA85-BA29-4DA2-BBBB-ABC55F66740C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83AB836-B44E-4D4D-B82C-A8E37E6C4E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__readMe" sheetId="7" r:id="rId1"/>
@@ -40,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={715CA918-F378-486C-97EC-6532DD5196D9}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{715CA918-F378-486C-97EC-6532DD5196D9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rule: not nullable unless at the very top of the hierarchy</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
   <si>
     <t>Role UID</t>
   </si>
@@ -635,6 +653,9 @@
   </si>
   <si>
     <t>GIS</t>
+  </si>
+  <si>
+    <t>Nullable</t>
   </si>
 </sst>
 </file>
@@ -644,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +809,12 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -972,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1087,6 +1114,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1132,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1207,6 +1249,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1255,25 +1298,6 @@
   <dxfs count="52">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1281,9 +1305,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1498,6 +1519,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1532,6 +1556,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1632,15 +1675,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>177239</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1958414</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1746,16 +1789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2207260</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2105660</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1770,8 +1813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1516380" y="6103620"/>
-          <a:ext cx="1765300" cy="838200"/>
+          <a:off x="1416050" y="4464050"/>
+          <a:ext cx="1762760" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1837,15 +1880,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>389890</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1908,15 +1951,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>200115</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>428715</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>54609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1999,15 +2042,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2073,15 +2116,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>230468</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2169,15 +2212,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>784225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1593850</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2270,16 +2313,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31058</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2314,15 +2357,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>60198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2382,15 +2425,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>687295</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2426,15 +2469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>696071</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95997</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>31251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3296,6 +3339,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tony Huang" id="{BCC9DBD6-E0DF-4A59-9996-41124A3DB265}" userId="S::thuang4@toronto.ca::6d7b281a-ef29-45eb-b079-dfbe0fc3ed5d" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A5:C7" totalsRowShown="0">
   <autoFilter ref="A5:C7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
@@ -3309,15 +3358,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Activity Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Done by"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Interpretation Outcome"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Description Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Entity Number Outcome"/>
@@ -3327,19 +3376,19 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="B3:H24" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="B3:H24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Role UID" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Entity Number" dataDxfId="48"/>
@@ -3354,51 +3403,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:G27" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:G27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:H28" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="B2:H28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Asset UID" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{62531491-25DD-45E3-B5C3-5E6259CDF35A}" name="Asset Number" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Asset Serial" dataDxfId="38"/>
     <tableColumn id="6" xr3:uid="{633E5025-C6FF-4A49-982C-D1171CFD55D0}" name="Asset Class" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{0E71A417-B464-4B9F-9649-ED9C9F03D391}" name="Source" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="State" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Serving Role" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{0E71A417-B464-4B9F-9649-ED9C9F03D391}" name="Source" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="State" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Serving Role" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{21D7225C-52F0-44BC-9514-DC3A4658CAC9}" name="Table312" displayName="Table312" ref="A1:F7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:F7" xr:uid="{B50949D7-7767-4ED5-9888-F0A438889534}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{21D7225C-52F0-44BC-9514-DC3A4658CAC9}" name="Table312" displayName="Table312" ref="B2:G8" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B2:G8" xr:uid="{B50949D7-7767-4ED5-9888-F0A438889534}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C971D4CC-9574-4F04-8F50-1834725457E4}" name="Asset UID" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{C2D6EAE3-DABA-43D2-92B0-797E9F32023F}" name="Asset Number" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{6A48754B-D7E0-498C-BA6C-4264692E11E2}" name="Asset Serial" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{903B2290-306B-4AB2-9D57-407AAD02514A}" name="Asset Class" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{93DE46B6-7313-4362-BD88-17ABD3C1CA29}" name="State" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{F072EA69-42E3-4AAB-A526-508172AF7AB6}" name="Coordinate" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{C971D4CC-9574-4F04-8F50-1834725457E4}" name="Asset UID" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C2D6EAE3-DABA-43D2-92B0-797E9F32023F}" name="Asset Number" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{6A48754B-D7E0-498C-BA6C-4264692E11E2}" name="Asset Serial" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{903B2290-306B-4AB2-9D57-407AAD02514A}" name="Asset Class" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{93DE46B6-7313-4362-BD88-17ABD3C1CA29}" name="State" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{F072EA69-42E3-4AAB-A526-508172AF7AB6}" name="Coordinate" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="A1:C23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:C23" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="B2:D24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B2:D24" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{07E996A2-3884-49D5-9DB8-95E6C4E8CF40}" name="Table8" displayName="Table8" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{4D985C3C-4F8D-42F4-969E-7BAD6CD04EC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{07E996A2-3884-49D5-9DB8-95E6C4E8CF40}" name="Table8" displayName="Table8" ref="B2:C22" totalsRowShown="0">
+  <autoFilter ref="B2:C22" xr:uid="{4D985C3C-4F8D-42F4-969E-7BAD6CD04EC8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EF00F11C-188C-4E21-895D-A7281218EB43}" name="Role UID"/>
     <tableColumn id="2" xr3:uid="{610E9656-02B1-4407-8D95-31B28B0F86AF}" name="Entity Number"/>
@@ -3408,19 +3457,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="A1:C22" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:C22" xr:uid="{29421CFA-D5AA-4B07-9386-FF1EE054C66F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="B2:D23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B2:D23" xr:uid="{29421CFA-D5AA-4B07-9386-FF1EE054C66F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="UID"/>
@@ -3433,16 +3482,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Activity Type"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Acting on Asset"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Done by"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="LCS Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Moved To"/>
   </tableColumns>
@@ -3711,6 +3760,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2022-12-14T17:04:17.97" personId="{BCC9DBD6-E0DF-4A59-9996-41124A3DB265}" id="{715CA918-F378-486C-97EC-6532DD5196D9}">
+    <text>Rule: not nullable unless at the very top of the hierarchy</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
@@ -3788,7 +3845,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,528 +4068,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="3" width="81.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="99.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="4" max="4" width="81.36328125" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="99.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>1181</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>1182</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="19">
+      <c r="E5" s="19">
         <v>1181</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>1183</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="19">
+      <c r="E6" s="19">
         <v>1182</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>1184</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="19">
+      <c r="E7" s="19">
         <v>1182</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>1185</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="19">
+      <c r="E8" s="19">
         <v>1182</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>1186</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="19">
+      <c r="E9" s="19">
         <v>1182</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>1187</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="19">
+      <c r="E10" s="19">
         <v>1182</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="14">
+      <c r="H10" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>1188</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E11" s="19">
         <v>1182</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H11" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>1189</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="19">
+      <c r="E12" s="19">
         <v>1182</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="14">
+      <c r="H12" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>1190</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="19">
+      <c r="E13" s="19">
         <v>1182</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="14">
+      <c r="H13" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>1191</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="19">
+      <c r="E14" s="19">
         <v>1182</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="14">
+      <c r="H14" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>1192</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="19">
+      <c r="E15" s="19">
         <v>1181</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>1193</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="19">
+      <c r="E16" s="19">
         <v>1192</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>1194</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="19">
+      <c r="E17" s="19">
         <v>1192</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>1195</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="19">
+      <c r="E18" s="19">
         <v>1192</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>1196</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="19">
+      <c r="E19" s="19">
         <v>1192</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>1197</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="19">
+      <c r="E20" s="19">
         <v>1192</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>1198</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="19">
+      <c r="E21" s="19">
         <v>1192</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="14">
+      <c r="H21" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>1199</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="19">
+      <c r="E22" s="19">
         <v>1192</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H22" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>1200</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="19">
+      <c r="E23" s="19">
         <v>1192</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="14">
+      <c r="H23" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>1201</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="19">
+      <c r="E24" s="19">
         <v>1192</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="14">
+      <c r="H24" s="14">
         <v>3</v>
       </c>
     </row>
@@ -4541,8 +4624,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4552,631 +4636,657 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>93620</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19">
+      <c r="H3" s="19">
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>93621</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="H4" s="19">
         <v>1183</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>93622</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="H5" s="19">
         <v>1184</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>93623</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="H6" s="19">
         <v>1185</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>93624</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="H7" s="19">
         <v>1186</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>93625</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>140</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H8" s="15">
         <v>1187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>93626</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H9" s="15">
         <v>1188</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>93627</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>142</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H10" s="15">
         <v>1189</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>93628</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>142</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H11" s="15">
         <v>1190</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>93629</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>143</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H12" s="15">
         <v>1191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>93630</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>136</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H13" s="19">
         <v>1192</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>93631</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>137</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="H14" s="19">
         <v>1193</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>93632</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>137</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="19">
+      <c r="H15" s="19">
         <v>1194</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>93633</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>138</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H16" s="19">
         <v>1195</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>93634</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>139</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19">
+      <c r="H17" s="19">
         <v>1196</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>93635</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>140</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
+      <c r="H18" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>93636</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H19" s="15">
         <v>1198</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>93637</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>142</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="15">
+      <c r="H20" s="15">
         <v>1199</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>93638</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F21" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="15">
+      <c r="H21" s="15">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>93639</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>143</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="15">
+      <c r="H22" s="15">
         <v>1201</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
         <v>93640</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
         <v>93641</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F24" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="24">
         <v>93642</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C25" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="F25" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
         <v>93643</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="E26" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="F26" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
         <v>93644</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="C27" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="24">
         <v>93645</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E28" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F28" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="H28" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -5193,159 +5303,182 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="50.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
         <v>968754</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
         <v>968755</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
         <v>968756</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
         <v>968757</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
         <v>968758</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
         <v>968759</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5364,275 +5497,289 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="12">
+      <c r="D14" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="12">
+      <c r="D15" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="12">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="12">
+      <c r="D17" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="12">
+      <c r="D18" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="12">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="12">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="12">
+      <c r="D21" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="12">
+      <c r="D22" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="12">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="12">
+      <c r="D24" s="12">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B23">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="C3:C24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5648,183 +5795,194 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>19328</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>373866</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>442892</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>845375</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>348148</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>881933</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>227387</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>301292</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>532317</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>356097</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>803050</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>100606</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>958022</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>922976</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>480776</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>297934</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>761341</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>2341</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>360506</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>880911</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5841,395 +5999,409 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="71.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="71.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="23">
         <v>23764</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
         <v>23765</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
         <v>23766</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
         <v>23768</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
         <v>23769</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
         <v>23770</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
         <v>23771</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
         <v>23772</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
         <v>23773</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
         <v>23774</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
         <v>23775</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
         <v>23776</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
         <v>23777</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
         <v>23778</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
         <v>23779</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
         <v>23780</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
         <v>23781</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
         <v>23782</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
         <v>23783</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="23">
         <v>23784</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
         <v>23785</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="12"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/testDataFactory.xlsx
+++ b/Data/testDataFactory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Documents\GitHub\FAMO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megankatsumi/FAMO/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83AB836-B44E-4D4D-B82C-A8E37E6C4E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB35603-8845-1B4B-841B-7E103BAA6DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__readMe" sheetId="7" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,12 +809,6 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1174,79 +1168,51 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1296,16 +1262,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1511,6 +1467,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3358,15 +3324,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table5" displayName="Table5" ref="A1:I5" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="UID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Activity Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Acting on" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Done by"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Time" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Interpretation Outcome"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Description Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Entity Number Outcome"/>
@@ -3376,11 +3342,11 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table81011" displayName="Table81011" ref="A1:B7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Entity Number" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Drawing Set Page Number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3434,12 +3400,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="B2:D24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table810" displayName="Table810" ref="B2:D24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B2:D24" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Drawing Tag UID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Entity Number" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Drawing Set Page Number" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3457,19 +3423,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="B2:D23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE8C41A2-7FCC-4A4D-84EF-128A5BC5A614}" name="Table6" displayName="Table6" ref="B2:D23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B2:D23" xr:uid="{29421CFA-D5AA-4B07-9386-FF1EE054C66F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B08933A8-2602-476A-8C24-02C33ABC2493}" name="ETMS Role UID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F5143272-340C-4F2B-B738-6850627429E7}" name="Entity Number" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{28FD2C0F-FD60-43A9-9C39-879B118D7AA6}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:D5" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="UID"/>
@@ -3482,16 +3448,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table4" displayName="Table4" ref="A1:I3" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="UID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Activity Type"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Acting on Asset"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Acting on Role" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Done by"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Time" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="LCS Outcome"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Moved To"/>
   </tableColumns>
@@ -3776,24 +3742,24 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3804,7 +3770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3815,7 +3781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3826,8 +3792,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3848,19 +3814,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3876,103 +3842,103 @@
       <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>44759</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>44760</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>0.625</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>44761</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>0.66666666666666696</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>44762</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>0.70833333333333304</v>
       </c>
       <c r="I5" t="s">
@@ -3996,13 +3962,13 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4010,7 +3976,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4026,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -4042,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4050,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4075,47 +4041,47 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
-    <col min="4" max="4" width="81.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="99.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="28" t="b">
+      <c r="B2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="b">
+      <c r="C2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="28" t="b">
+      <c r="D2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="28" t="b">
+      <c r="E2" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="b">
+      <c r="F2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="28" t="b">
+      <c r="G2" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="28" t="b">
+      <c r="H2" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4134,11 +4100,11 @@
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1181</v>
       </c>
@@ -4155,21 +4121,21 @@
       <c r="G4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1182</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <v>1181</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4178,21 +4144,21 @@
       <c r="G5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1183</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <v>1182</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4201,21 +4167,21 @@
       <c r="G6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>1184</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <v>1182</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4224,21 +4190,21 @@
       <c r="G7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1185</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="9">
         <v>1182</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -4247,159 +4213,159 @@
       <c r="G8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>1186</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="9">
         <v>1182</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>1187</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="9">
         <v>1182</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1188</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="9">
         <v>1182</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1189</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="9">
         <v>1182</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>1190</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="9">
         <v>1182</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>1191</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="9">
         <v>1182</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>1192</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="9">
         <v>1181</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -4408,21 +4374,21 @@
       <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>1193</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="9">
         <v>1192</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -4431,21 +4397,21 @@
       <c r="G16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>1194</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="9">
         <v>1192</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -4454,21 +4420,21 @@
       <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>1195</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="9">
         <v>1192</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -4477,145 +4443,145 @@
       <c r="G18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>1196</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="9">
         <v>1192</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>1197</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="9">
         <v>1192</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>1198</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="9">
         <v>1192</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>1199</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="9">
         <v>1192</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>1200</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="9">
         <v>1192</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>1201</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="9">
         <v>1192</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4642,18 +4608,18 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -4679,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4702,7 +4668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>93620</v>
       </c>
@@ -4721,11 +4687,11 @@
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="9">
         <v>1182</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>93621</v>
       </c>
@@ -4741,14 +4707,14 @@
       <c r="F4" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="9">
         <v>1183</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>93622</v>
       </c>
@@ -4767,11 +4733,11 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="9">
         <v>1184</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>93623</v>
       </c>
@@ -4790,11 +4756,11 @@
       <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="9">
         <v>1185</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>93624</v>
       </c>
@@ -4813,11 +4779,11 @@
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="9">
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>93625</v>
       </c>
@@ -4836,11 +4802,11 @@
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>93626</v>
       </c>
@@ -4859,11 +4825,11 @@
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="9">
         <v>1188</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>93627</v>
       </c>
@@ -4882,11 +4848,11 @@
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="9">
         <v>1189</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>93628</v>
       </c>
@@ -4905,11 +4871,11 @@
       <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="9">
         <v>1190</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>93629</v>
       </c>
@@ -4928,11 +4894,11 @@
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <v>1191</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>93630</v>
       </c>
@@ -4951,11 +4917,11 @@
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="9">
         <v>1192</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>93631</v>
       </c>
@@ -4974,11 +4940,11 @@
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="9">
         <v>1193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>93632</v>
       </c>
@@ -4997,11 +4963,11 @@
       <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="9">
         <v>1194</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>93633</v>
       </c>
@@ -5020,11 +4986,11 @@
       <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="9">
         <v>1195</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>93634</v>
       </c>
@@ -5043,11 +5009,11 @@
       <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="9">
         <v>1196</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>93635</v>
       </c>
@@ -5066,11 +5032,11 @@
       <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="9">
         <v>1197</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>93636</v>
       </c>
@@ -5089,11 +5055,11 @@
       <c r="G19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="9">
         <v>1198</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>93637</v>
       </c>
@@ -5112,11 +5078,11 @@
       <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="9">
         <v>1199</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>93638</v>
       </c>
@@ -5135,11 +5101,11 @@
       <c r="G21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>93639</v>
       </c>
@@ -5158,135 +5124,135 @@
       <c r="G22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="9">
         <v>1201</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+    <row r="23" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="15">
         <v>93640</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="15">
         <v>93641</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="15">
         <v>93642</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="15">
         <v>93643</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="15">
         <v>93644</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="15">
         <v>93645</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -5309,17 +5275,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="50.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -5342,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5358,127 +5324,127 @@
       <c r="F2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="12">
         <v>968754</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="12">
         <v>968755</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="12">
         <v>968756</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
         <v>968757</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
         <v>968758</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
         <v>968759</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5503,14 +5469,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -5524,8 +5490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5535,8 +5501,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5546,8 +5512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5557,8 +5523,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5568,8 +5534,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5579,8 +5545,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5590,8 +5556,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5601,8 +5567,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5612,174 +5578,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+    <row r="17" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+    <row r="18" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+    <row r="19" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+    <row r="20" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+    <row r="21" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+    <row r="22" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5801,13 +5767,13 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -5818,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>19328</v>
       </c>
@@ -5834,7 +5800,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>373866</v>
       </c>
@@ -5842,7 +5808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>442892</v>
       </c>
@@ -5850,7 +5816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>845375</v>
       </c>
@@ -5858,7 +5824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>348148</v>
       </c>
@@ -5866,7 +5832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>881933</v>
       </c>
@@ -5874,7 +5840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>227387</v>
       </c>
@@ -5882,7 +5848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>301292</v>
       </c>
@@ -5890,7 +5856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>532317</v>
       </c>
@@ -5898,7 +5864,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>356097</v>
       </c>
@@ -5906,7 +5872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>803050</v>
       </c>
@@ -5914,7 +5880,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>100606</v>
       </c>
@@ -5922,7 +5888,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>958022</v>
       </c>
@@ -5930,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>922976</v>
       </c>
@@ -5938,7 +5904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>480776</v>
       </c>
@@ -5946,7 +5912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>297934</v>
       </c>
@@ -5954,7 +5920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>761341</v>
       </c>
@@ -5962,7 +5928,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2341</v>
       </c>
@@ -5970,7 +5936,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>360506</v>
       </c>
@@ -5978,7 +5944,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>880911</v>
       </c>
@@ -6005,14 +5971,14 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="71.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -6026,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
@@ -6037,8 +6003,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="23">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="14">
         <v>23764</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6048,8 +6014,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="14">
         <v>23765</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6059,8 +6025,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
         <v>23766</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -6070,8 +6036,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
         <v>23768</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6081,8 +6047,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
         <v>23769</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6092,8 +6058,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
         <v>23770</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6103,8 +6069,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
         <v>23771</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -6114,8 +6080,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
         <v>23772</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6125,8 +6091,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
         <v>23773</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6136,8 +6102,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
         <v>23774</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6147,8 +6113,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="14">
         <v>23775</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6158,8 +6124,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
         <v>23776</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6169,8 +6135,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="14">
         <v>23777</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6180,8 +6146,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
         <v>23778</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -6191,8 +6157,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+    <row r="17" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
         <v>23779</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6202,8 +6168,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
+    <row r="18" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
         <v>23780</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6213,8 +6179,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+    <row r="19" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
         <v>23781</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -6224,8 +6190,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
+    <row r="20" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
         <v>23782</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6235,8 +6201,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+    <row r="21" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="14">
         <v>23783</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6246,8 +6212,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
+    <row r="22" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="14">
         <v>23784</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6257,8 +6223,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
+    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="14">
         <v>23785</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6268,140 +6234,140 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6420,29 +6386,29 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -6456,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -6470,7 +6436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -6484,7 +6450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -6515,19 +6481,19 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -6546,18 +6512,18 @@
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6569,33 +6535,33 @@
       <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>44749</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>44750</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>0.625</v>
       </c>
       <c r="H3" t="e">
